--- a/ATT/src/test/resources/AttDeals.xlsx
+++ b/ATT/src/test/resources/AttDeals.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahcenesaidi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahcenesaidi/SeleniumBootcamp_Team4/ATT/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40FD7609-9131-B740-9D04-C318531932B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BF1D1D-80A1-224E-8EB8-4918F74AB0E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="600" windowWidth="28040" windowHeight="17440" xr2:uid="{0FD7231B-0806-1A4C-89F2-CF2A76633135}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Samsung</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>AT &amp; TV</t>
+  </si>
+  <si>
+    <t>Television</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72274AB7-7FAD-EE41-B411-1C0BAD028657}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,6 +433,11 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
